--- a/publipostage/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
+++ b/publipostage/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT02279121</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Prospective, Randomized, Controlled Trial Evaluating the Efficacy of a Lock-therapy With a Solution of Taurolidine/Citrate (TauroLock) vs Standard Saline Solution for the Primary Prevention of Catheter-related Infections (CLI) in Adult Patients Wtih a Non-hematological Cancer Treated With Intravenous Anti-tumor Therapy</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>ATAPAC</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT02075424</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Descriptive Study of Biological Stress and Perceived Stress in Call Regulation Operators and Doctors When Processing a Call at the Center 15</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>RegulStress</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT01526915</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Contribution of Platelet Rich Fibrin (PRF) After Tooth Avulsion in the Prevention of Healing Delay and of Jawbone Osteochemonecrosis Induced by Bisphosphonates</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>OCN/PRF</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -599,29 +619,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT02818101</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT02535819</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HypCor</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+          <t>Endothelial Cell Loss After Phacoemulsification Intra and Supracapsular</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PERCEPOLIS</t>
+        </is>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,33 +661,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT02535819</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT02818101</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Endothelial Cell Loss After Phacoemulsification Intra and Supracapsular</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>PERCEPOLIS</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>HypCor</t>
+        </is>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -669,32 +699,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT03271476</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>EMDR Psychotherapy of Anxious-depressive Symptoms for Women That Present an Invasive Beast Cancer : a Faisability Study</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>PSYCANCER</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -706,27 +741,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT02884297</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Feasibility Study of the Measurement of the Placental Perfusion During the First Trimester of Pregnancy by 3D Doppler Echo-angiography With a Contrast Agent</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>HOPE</t>
         </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -734,6 +771,9 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -743,32 +783,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT02818374</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy and Safety of Use of an Innovative Medical Device for Improving Oral Accessibility in People With Disabilities, Presenting Behavioral Disorders: The Oral Accessibility Spatula (Spatule SAB)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>SAB</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -780,32 +825,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT02886468</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Determinants of Muscle - Skin Distance at the Injection Site in Patients With an Indication for the Use of Epinephrine Auto- Injector Pens</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>DEEP</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -817,32 +867,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT03815227</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Outpatient Birth: Pilot Study to Assess the Feasibility of Maternity Out the Same Date or the Next Day of the Birth</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>ACCAMBU</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -854,32 +909,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT02956265</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Assessment of Optical Spectroscopy's Diagnosis Accuracy When Non-invasively and Automatically Classifying Skin Lesions in One of the Following Histological Classes: Healthy, Actinic Keratosis, in Situ Carcinoma and Invasive Carcinoma.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>SPECTROLIVE</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -891,32 +951,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NCT04915274</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Validation of an Electronic Remote Toxicity Management System in Adult Cancer Patients Receiving an Active Anti-cancer Treatment</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>eRToMSy</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -928,32 +993,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NCT03898453</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>EMDR Psychotherapy of Anxious-depressive Symptoms for Women That Present an Invasive Breast Cancer : a Randomised Controlled Trial</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>PSYCANCER</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -965,32 +1035,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NCT05265832</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Identification of Factors That Influence the Corneal Endothelial Cell Loss During Phacoemulsification</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>PREDICS</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1000,32 +1075,37 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>2018-000597-29</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Interest of Nasal Provocation Tests for Diagnosis of House Mites Allergic Rhinitis  
  Intérêt des tests de provocation nasale dans la sélection des patients devant bénéficier d’une immunothérapie spécifique aux acariens</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>NPT-MAR 
  NPT-MAR</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
+++ b/publipostage/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -690,6 +715,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -732,6 +762,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -774,6 +809,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -816,6 +856,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -858,6 +903,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -900,6 +950,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -942,6 +997,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -984,6 +1044,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1026,6 +1091,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1068,6 +1138,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1108,6 +1183,7 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
